--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_39_9.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_39_9.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998624478166427</v>
+        <v>0.9997912355131682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9992030429098744</v>
+        <v>0.9990973123978394</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9998548532062603</v>
+        <v>0.9997718487927642</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9995320491120805</v>
+        <v>0.9997597446657953</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9996873954830747</v>
+        <v>0.9997646100149349</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001283989253209971</v>
+        <v>0.0001948724847556128</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007439244612590405</v>
+        <v>0.0008426192532106154</v>
       </c>
       <c r="I2" t="n">
-        <v>9.06263816393295e-05</v>
+        <v>0.0002079515251936399</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0003629411698180709</v>
+        <v>0.000329247562109738</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0002267837757287002</v>
+        <v>0.0002685986455468329</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001201650464738384</v>
+        <v>0.001656367663139883</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01133132495875911</v>
+        <v>0.01395967351894781</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000100037951533</v>
+        <v>1.000151828717696</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01181372292132981</v>
+        <v>0.01455396572115733</v>
       </c>
       <c r="P2" t="n">
-        <v>131.9207370730352</v>
+        <v>131.086330275265</v>
       </c>
       <c r="Q2" t="n">
-        <v>201.3966590905226</v>
+        <v>200.5622522927524</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998608038700664</v>
+        <v>0.9997875014672062</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9992011677453376</v>
+        <v>0.9990943364210825</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9998526598402726</v>
+        <v>0.9997697545220491</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995305915915929</v>
+        <v>0.999755313545711</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9996856708633756</v>
+        <v>0.9997611119736387</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000129933477289124</v>
+        <v>0.0001983580527554677</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007456748450439557</v>
+        <v>0.0008453971968829682</v>
       </c>
       <c r="I3" t="n">
-        <v>9.199586985164258e-05</v>
+        <v>0.000209860376760208</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0003640716179151645</v>
+        <v>0.0003353199995438044</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0002280349277303594</v>
+        <v>0.0002725901881520062</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001211155668885504</v>
+        <v>0.001671617734703986</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01139883666384969</v>
+        <v>0.01408396438349188</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000101233549043</v>
+        <v>1.000154544387486</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0118841087394746</v>
+        <v>0.01468354790512259</v>
       </c>
       <c r="P3" t="n">
-        <v>131.8969759032783</v>
+        <v>131.0508736262226</v>
       </c>
       <c r="Q3" t="n">
-        <v>201.3728979207657</v>
+        <v>200.52679564371</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998591284009181</v>
+        <v>0.9997837023621807</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991992646221639</v>
+        <v>0.9990912985809827</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999850411173831</v>
+        <v>0.9997676306194447</v>
       </c>
       <c r="E4" t="n">
-        <v>0.99952910621823</v>
+        <v>0.9997508220700876</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9996839108211997</v>
+        <v>0.9997575666421047</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001314974541944152</v>
+        <v>0.0002019043505353115</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007474513269891145</v>
+        <v>0.000848232887270301</v>
       </c>
       <c r="I4" t="n">
-        <v>9.339988641901374e-05</v>
+        <v>0.0002117962367159375</v>
       </c>
       <c r="J4" t="n">
-        <v>0.000365223668610794</v>
+        <v>0.0003414751486238255</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0002293117775149039</v>
+        <v>0.0002766356926698815</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001220752319032009</v>
+        <v>0.001687002516905111</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01146723393824401</v>
+        <v>0.01420930506869747</v>
       </c>
       <c r="N4" t="n">
-        <v>1.00010245207206</v>
+        <v>1.000157307372959</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01195541782744176</v>
+        <v>0.01481422460278837</v>
       </c>
       <c r="P4" t="n">
-        <v>131.8730461325443</v>
+        <v>131.0154329698136</v>
       </c>
       <c r="Q4" t="n">
-        <v>201.3489681500317</v>
+        <v>200.491354987301</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998574187971402</v>
+        <v>0.9997798171505566</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991973273797858</v>
+        <v>0.9990881912409042</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998481362026082</v>
+        <v>0.9997654702613886</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9995275912237976</v>
+        <v>0.9997462156474375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9996821219934974</v>
+        <v>0.9997539358556551</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001330932942781348</v>
+        <v>0.0002055310250453234</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0007492596577139252</v>
+        <v>0.0008511334528371818</v>
       </c>
       <c r="I5" t="n">
-        <v>9.482032709808475e-05</v>
+        <v>0.0002137653244897527</v>
       </c>
       <c r="J5" t="n">
-        <v>0.000366398693310477</v>
+        <v>0.0003477878218996113</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0002306095102042809</v>
+        <v>0.000280778708025287</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001230444586713651</v>
+        <v>0.001702567668647594</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01153660670553239</v>
+        <v>0.01433635326871249</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000103695420262</v>
+        <v>1.000160132981413</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01202774393705502</v>
+        <v>0.01494668150770407</v>
       </c>
       <c r="P5" t="n">
-        <v>131.8489204298265</v>
+        <v>130.9798271239335</v>
       </c>
       <c r="Q5" t="n">
-        <v>201.3248424473139</v>
+        <v>200.455749141421</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998556785302389</v>
+        <v>0.9997758600402411</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991953568515304</v>
+        <v>0.9990850063953195</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998458213076521</v>
+        <v>0.9997632673256679</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9995260460899417</v>
+        <v>0.9997415261342704</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9996802998743985</v>
+        <v>0.9997502419112452</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001347177570416173</v>
+        <v>0.0002092248138277881</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0007510990593442463</v>
+        <v>0.0008541063663918668</v>
       </c>
       <c r="I6" t="n">
-        <v>9.626569525496964e-05</v>
+        <v>0.0002157732202557387</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0003675970940480215</v>
+        <v>0.0003542143629912044</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0002319313946514956</v>
+        <v>0.0002849937916234715</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001240227992024296</v>
+        <v>0.001718267886881083</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01160679788062226</v>
+        <v>0.01446460555382649</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000104961068917</v>
+        <v>1.000163010879825</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01210092329578424</v>
+        <v>0.0150803937581142</v>
       </c>
       <c r="P6" t="n">
-        <v>131.8246573132935</v>
+        <v>130.9442024397279</v>
       </c>
       <c r="Q6" t="n">
-        <v>201.3005793307809</v>
+        <v>200.4201244572153</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998538992754863</v>
+        <v>0.9997718220457886</v>
       </c>
       <c r="C7" t="n">
-        <v>0.999193351086857</v>
+        <v>0.9990817614453168</v>
       </c>
       <c r="D7" t="n">
-        <v>0.999843445321459</v>
+        <v>0.9997610206163879</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9995244627715582</v>
+        <v>0.9997367494571295</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9996784327204037</v>
+        <v>0.9997464762725309</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00013637861325295</v>
+        <v>0.0002129941044017248</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007529713526238933</v>
+        <v>0.0008571353847826065</v>
       </c>
       <c r="I7" t="n">
-        <v>9.774920740124192e-05</v>
+        <v>0.0002178210140285831</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0003688251105795343</v>
+        <v>0.0003607603541918382</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0002332859503597016</v>
+        <v>0.0002892906841102107</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001250128605516897</v>
+        <v>0.00173414361120694</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01167812541690446</v>
+        <v>0.01459431753805997</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000106255072374</v>
+        <v>1.000165947603063</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01217528739295433</v>
+        <v>0.01521562785005732</v>
       </c>
       <c r="P7" t="n">
-        <v>131.8001512383633</v>
+        <v>130.9084921430061</v>
       </c>
       <c r="Q7" t="n">
-        <v>201.2760732558507</v>
+        <v>200.3844141604935</v>
       </c>
     </row>
     <row r="8">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998520861677364</v>
+        <v>0.999767706587812</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991913146089707</v>
+        <v>0.9990784442709983</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999841038077967</v>
+        <v>0.9997587376537724</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9995228556019069</v>
+        <v>0.9997318808659378</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9996765360337554</v>
+        <v>0.999742640142269</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001380710697512572</v>
+        <v>0.0002168357037752045</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007548723153397137</v>
+        <v>0.000860231821401673</v>
       </c>
       <c r="I8" t="n">
-        <v>9.925223589936674e-05</v>
+        <v>0.0002199018513978216</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0003700716260758693</v>
+        <v>0.000367432305039935</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000234661930987618</v>
+        <v>0.000293668013044583</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001260121095003719</v>
+        <v>0.001750161313727811</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01175036466460753</v>
+        <v>0.01472534222947652</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000107573696192</v>
+        <v>1.00016894066341</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01225060201498797</v>
+        <v>0.01535223053384598</v>
       </c>
       <c r="P8" t="n">
-        <v>131.7754840143512</v>
+        <v>130.8727412332959</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.2514060318387</v>
+        <v>200.3486632507833</v>
       </c>
     </row>
     <row r="9">
@@ -907,52 +907,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999850235394344</v>
+        <v>0.9997635127843114</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999189240095158</v>
+        <v>0.999075058988432</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999838579116444</v>
+        <v>0.9997564151080328</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9995212018128685</v>
+        <v>0.9997269267981698</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9996745938369084</v>
+        <v>0.9997387385139479</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001397986854734262</v>
+        <v>0.0002207504352562689</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0007568087829233288</v>
+        <v>0.0008633918340807322</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001007875559686288</v>
+        <v>0.0002220187673446712</v>
       </c>
       <c r="J9" t="n">
-        <v>0.000371354299415581</v>
+        <v>0.0003742213935758264</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002360709276921049</v>
+        <v>0.0002981200804602488</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001270210782503634</v>
+        <v>0.001766325266867064</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01182364941434861</v>
+        <v>0.01485767260563608</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000108919713204</v>
+        <v>1.000171990702319</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01232700664824588</v>
+        <v>0.0154901944880803</v>
       </c>
       <c r="P9" t="n">
-        <v>131.7506142622341</v>
+        <v>130.8369554935326</v>
       </c>
       <c r="Q9" t="n">
-        <v>201.2265362797215</v>
+        <v>200.3128775110201</v>
       </c>
     </row>
     <row r="10">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998483462034279</v>
+        <v>0.9997592284771636</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991871316416842</v>
+        <v>0.999071589038028</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9998360646699208</v>
+        <v>0.9997540451717328</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9995195218836689</v>
+        <v>0.9997218600139199</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996726156063427</v>
+        <v>0.9997347502849341</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001415621622677607</v>
+        <v>0.0002247496479194044</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0007587769316906607</v>
+        <v>0.0008666308804696598</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001023575196195731</v>
+        <v>0.00022417887806315</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00037265724697843</v>
+        <v>0.0003811649495534802</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0002375060656144902</v>
+        <v>0.0003026709661359979</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001280422864928217</v>
+        <v>0.001782682276469208</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01189798984147157</v>
+        <v>0.01499165260801505</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000110293670234</v>
+        <v>1.000175106562063</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01240451190125736</v>
+        <v>0.01562987829653737</v>
       </c>
       <c r="P10" t="n">
-        <v>131.7255432560725</v>
+        <v>130.8010469023141</v>
       </c>
       <c r="Q10" t="n">
-        <v>201.20146527356</v>
+        <v>200.2769689198015</v>
       </c>
     </row>
     <row r="11">
@@ -1017,52 +1017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998464213407354</v>
+        <v>0.9997548675462161</v>
       </c>
       <c r="C11" t="n">
-        <v>0.999184982828652</v>
+        <v>0.9990680555462043</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998335070273557</v>
+        <v>0.9997516344971961</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999517823972824</v>
+        <v>0.999716705468834</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9996706055425061</v>
+        <v>0.9997306944930179</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001433589370994203</v>
+        <v>0.0002288203855361265</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000760782754334255</v>
+        <v>0.0008699292399846409</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001039544539039872</v>
+        <v>0.0002263761202024771</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0003739741410461332</v>
+        <v>0.0003882287735845463</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0002389642974750602</v>
+        <v>0.0003072989464427798</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001290731379782454</v>
+        <v>0.00179917184218618</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01197325925132419</v>
+        <v>0.01512681015733742</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000111693570374</v>
+        <v>1.000178278148206</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01248298568571656</v>
+        <v>0.01577078978254909</v>
       </c>
       <c r="P11" t="n">
-        <v>131.7003180459424</v>
+        <v>130.7651464096093</v>
       </c>
       <c r="Q11" t="n">
-        <v>201.1762400634298</v>
+        <v>200.2410684270967</v>
       </c>
     </row>
     <row r="12">
@@ -1072,52 +1072,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998444561873235</v>
+        <v>0.9997504184790794</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991827966893201</v>
+        <v>0.9990644447163989</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9998308982491375</v>
+        <v>0.9997491763707638</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9995160725458426</v>
+        <v>0.9997114660080273</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9996685466827423</v>
+        <v>0.9997265634538256</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001451933215492001</v>
+        <v>0.000232973394416734</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0007628234194401661</v>
+        <v>0.000873299791110877</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001055833161359859</v>
+        <v>0.0002286166130182034</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0003753325420533657</v>
+        <v>0.0003954089667032265</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002404579290946758</v>
+        <v>0.0003120127898607149</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001301144925311416</v>
+        <v>0.00181583120139028</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01204961914540041</v>
+        <v>0.01526346600273784</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000113122772856</v>
+        <v>1.000181513833397</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01256259637857038</v>
+        <v>0.01591326335020481</v>
       </c>
       <c r="P12" t="n">
-        <v>131.6748889029432</v>
+        <v>130.7291725959421</v>
       </c>
       <c r="Q12" t="n">
-        <v>201.1508109204306</v>
+        <v>200.2050946134295</v>
       </c>
     </row>
     <row r="13">
@@ -1127,52 +1127,52 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998424599754016</v>
+        <v>0.9997458752279654</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991805698123198</v>
+        <v>0.9990607443598721</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999828268787581</v>
+        <v>0.9997466674713692</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9995143352471745</v>
+        <v>0.9997061105030385</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9996664820943629</v>
+        <v>0.9997223440009984</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001470566977547697</v>
+        <v>0.0002372143199059465</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0007649021113712369</v>
+        <v>0.0008767539115017404</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001072250925775094</v>
+        <v>0.000230903383541931</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0003766799851872443</v>
+        <v>0.0004027481875669912</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002419557166270307</v>
+        <v>0.0003168275202496637</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001311641353856413</v>
+        <v>0.001832679497144452</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01212669360356605</v>
+        <v>0.01540176353233442</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000114574563344</v>
+        <v>1.000184818016025</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01264295205598626</v>
+        <v>0.01605744849195167</v>
       </c>
       <c r="P13" t="n">
-        <v>131.6493846930725</v>
+        <v>130.693093044129</v>
       </c>
       <c r="Q13" t="n">
-        <v>201.1253067105599</v>
+        <v>200.1690150616164</v>
       </c>
     </row>
     <row r="14">
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998404171655386</v>
+        <v>0.9997412467042703</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991783061724545</v>
+        <v>0.9990569705676782</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999825557559275</v>
+        <v>0.9997441226195865</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9995125270870349</v>
+        <v>0.9997006529767165</v>
       </c>
       <c r="F14" t="n">
-        <v>0.999664354957961</v>
+        <v>0.999718048265585</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001489635710928499</v>
+        <v>0.0002415348436066043</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0007670151198232783</v>
+        <v>0.0008802765808644446</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001089179223317611</v>
+        <v>0.0002332229233594502</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0003780823882453816</v>
+        <v>0.000410227219167381</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002434988805885163</v>
+        <v>0.0003217292951206401</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001322274126708535</v>
+        <v>0.001849681043470449</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01220506333833831</v>
+        <v>0.01554139130215195</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000116060243245</v>
+        <v>1.000188184215076</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01272465815261549</v>
+        <v>0.01620302050499966</v>
       </c>
       <c r="P14" t="n">
-        <v>131.6236175424419</v>
+        <v>130.6569936306689</v>
       </c>
       <c r="Q14" t="n">
-        <v>201.0995395599293</v>
+        <v>200.1329156481563</v>
       </c>
     </row>
     <row r="15">
@@ -1237,52 +1237,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998383347057789</v>
+        <v>0.9997365254687577</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991760059422379</v>
+        <v>0.9990531182105624</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998228039860856</v>
+        <v>0.9997415232665299</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9995106790377909</v>
+        <v>0.9996951037161094</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9996621821210042</v>
+        <v>0.9997136800185876</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001509074558691881</v>
+        <v>0.000245941909719468</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0007691622837620648</v>
+        <v>0.0008838725871330491</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001106371912753495</v>
+        <v>0.0002355921391054292</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0003795157291617228</v>
+        <v>0.00041783196406285</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0002450751987234702</v>
+        <v>0.0003267138114609767</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001332998909816226</v>
+        <v>0.001866858738369469</v>
       </c>
       <c r="M15" t="n">
-        <v>0.012284439583033</v>
+        <v>0.01568253518151539</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000117574759434</v>
+        <v>1.000191617840904</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01280741360837831</v>
+        <v>0.01635017317151571</v>
       </c>
       <c r="P15" t="n">
-        <v>131.597687568145</v>
+        <v>130.6208303785379</v>
       </c>
       <c r="Q15" t="n">
-        <v>201.0736095856325</v>
+        <v>200.0967523960253</v>
       </c>
     </row>
     <row r="16">
@@ -1292,52 +1292,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998362111696215</v>
+        <v>0.9997317069981542</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991736599960247</v>
+        <v>0.9990491624581769</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998200022476236</v>
+        <v>0.9997388767211487</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9995088137243535</v>
+        <v>0.9996894278046823</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9996599758594364</v>
+        <v>0.9997092171200956</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001528896836595805</v>
+        <v>0.0002504397405214398</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0007713521215768783</v>
+        <v>0.0008875651083474947</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001123865335279186</v>
+        <v>0.000238004368938306</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0003809624601297543</v>
+        <v>0.0004256102721128793</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002466757652587995</v>
+        <v>0.0003318063326649782</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001343847784519152</v>
+        <v>0.001884218022852173</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01236485679899207</v>
+        <v>0.01582528800753527</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000119119149366</v>
+        <v>1.000195122183161</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01289125435170735</v>
+        <v>0.01649900328087835</v>
       </c>
       <c r="P16" t="n">
-        <v>131.5715878369318</v>
+        <v>130.5845844463568</v>
       </c>
       <c r="Q16" t="n">
-        <v>201.0475098544192</v>
+        <v>200.0605064638443</v>
       </c>
     </row>
     <row r="17">
@@ -1347,52 +1347,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.999834043331719</v>
+        <v>0.9997268007927035</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991712720404846</v>
+        <v>0.9990451408928678</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9998171359711006</v>
+        <v>0.9997361785197266</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9995069110421401</v>
+        <v>0.9996836699149357</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9996577270855075</v>
+        <v>0.9997046810902064</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001549132651845277</v>
+        <v>0.000255019467952111</v>
       </c>
       <c r="H17" t="n">
-        <v>0.000773581173254468</v>
+        <v>0.0008913190630372465</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000114176171888939</v>
+        <v>0.0002404636813732031</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0003824381741975519</v>
+        <v>0.0004335009238157358</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0002483071730432454</v>
+        <v>0.0003369823025944695</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001354809283524654</v>
+        <v>0.001901727467564359</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0124464157565352</v>
+        <v>0.01596932897626293</v>
       </c>
       <c r="N17" t="n">
-        <v>1.00012069575875</v>
+        <v>1.000198690332579</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0129762854429234</v>
+        <v>0.01664917637185066</v>
       </c>
       <c r="P17" t="n">
-        <v>131.5452903542454</v>
+        <v>130.5483413416195</v>
       </c>
       <c r="Q17" t="n">
-        <v>201.0212123717328</v>
+        <v>200.0242633591069</v>
       </c>
     </row>
     <row r="18">
@@ -1402,52 +1402,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9998318301291033</v>
+        <v>0.999721787899794</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991688400124215</v>
+        <v>0.9990410328627251</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998142133577601</v>
+        <v>0.9997334181719131</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9995049561516041</v>
+        <v>0.9996777876444237</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999655424411768</v>
+        <v>0.9997000451435498</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001569791926779148</v>
+        <v>0.0002596987834424645</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0007758513646976765</v>
+        <v>0.0008951537288537572</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001160009856871109</v>
+        <v>0.0002429796379830672</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0003839543808685991</v>
+        <v>0.0004415620277747561</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0002499776832778551</v>
+        <v>0.0003422722854815519</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001365897279780667</v>
+        <v>0.001919444586601937</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01252913375608685</v>
+        <v>0.0161151724608353</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000122305360652</v>
+        <v>1.000202336072877</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01306252491896582</v>
+        <v>0.0168012287154989</v>
       </c>
       <c r="P18" t="n">
-        <v>131.5187945842257</v>
+        <v>130.5119762475583</v>
       </c>
       <c r="Q18" t="n">
-        <v>200.9947166017131</v>
+        <v>199.9878982650457</v>
       </c>
     </row>
     <row r="19">
@@ -1457,52 +1457,52 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998295735524083</v>
+        <v>0.9997166834436764</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991663715811525</v>
+        <v>0.9990368368384028</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9998112423851431</v>
+        <v>0.9997306035015789</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9995029717204579</v>
+        <v>0.9996718027558165</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9996530851366707</v>
+        <v>0.9996953297143784</v>
       </c>
       <c r="G19" t="n">
-        <v>0.000159085607970343</v>
+        <v>0.0002644635691685498</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0007781555369356513</v>
+        <v>0.0008990705333743887</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001178559939259699</v>
+        <v>0.0002455451075941546</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0003854934991398255</v>
+        <v>0.000449763760277217</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0002516747465328977</v>
+        <v>0.0003476529642231765</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00137709502409654</v>
+        <v>0.001937313237962305</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0126129143329503</v>
+        <v>0.01626233590750572</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000123946507339</v>
+        <v>1.000206048404599</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01314987220843605</v>
+        <v>0.01695465721476441</v>
       </c>
       <c r="P19" t="n">
-        <v>131.492136171459</v>
+        <v>130.4756141017294</v>
       </c>
       <c r="Q19" t="n">
-        <v>200.9680581889465</v>
+        <v>199.9515361192168</v>
       </c>
     </row>
     <row r="20">
@@ -1512,52 +1512,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998272727272811</v>
+        <v>0.9997114692785869</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991638513149441</v>
+        <v>0.9990325312624803</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9998082142113967</v>
+        <v>0.9997277370350729</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9995009462611353</v>
+        <v>0.9996656875262178</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9996506993146201</v>
+        <v>0.9996905114814107</v>
       </c>
       <c r="G20" t="n">
-        <v>0.000161233327232031</v>
+        <v>0.0002693307634042115</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0007805080948142865</v>
+        <v>0.000903089599505231</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001197467172587917</v>
+        <v>0.0002481577875316282</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0003870644387296718</v>
+        <v>0.000458144112970711</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0002534055779942318</v>
+        <v>0.0003531509502511696</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001388401029641897</v>
+        <v>0.001955389600476777</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01269776859263197</v>
+        <v>0.01641129986942568</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000125619834705</v>
+        <v>1.000209840524664</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01323833888962491</v>
+        <v>0.01710996288094122</v>
       </c>
       <c r="P20" t="n">
-        <v>131.4653160092898</v>
+        <v>130.4391406599457</v>
       </c>
       <c r="Q20" t="n">
-        <v>200.9412380267772</v>
+        <v>199.9150626774331</v>
       </c>
     </row>
     <row r="21">
@@ -1567,52 +1567,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9998249309416527</v>
+        <v>0.9997061579789551</v>
       </c>
       <c r="C21" t="n">
-        <v>0.99916128753139</v>
+        <v>0.9990281521512003</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9998051419781228</v>
+        <v>0.9997248149196235</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9994989038944906</v>
+        <v>0.9996594805436591</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9996482854946559</v>
+        <v>0.9996856172145315</v>
       </c>
       <c r="G21" t="n">
-        <v>0.000163419281323667</v>
+        <v>0.0002742886284713872</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0007829012742249694</v>
+        <v>0.0009071773076642519</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001216649503660944</v>
+        <v>0.0002508211894563801</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0003886484915830283</v>
+        <v>0.0004666502045514548</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0002551567209745614</v>
+        <v>0.0003587356970039175</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001399805006057339</v>
+        <v>0.001973625264912507</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0127835551128654</v>
+        <v>0.01656166140432134</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000127322951525</v>
+        <v>1.000213703288033</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01332777751962725</v>
+        <v>0.01726672561766867</v>
       </c>
       <c r="P21" t="n">
-        <v>131.4383827634861</v>
+        <v>130.4026592348379</v>
       </c>
       <c r="Q21" t="n">
-        <v>200.9143047809736</v>
+        <v>199.8785812523253</v>
       </c>
     </row>
     <row r="22">
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.999822537983996</v>
+        <v>0.9997007444720245</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991586847165312</v>
+        <v>0.999023669309526</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9998019926756171</v>
+        <v>0.9997218462237201</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999496802862201</v>
+        <v>0.9996531544451133</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9996458059585437</v>
+        <v>0.9996806281010492</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001656530022574638</v>
+        <v>0.0002793418995655938</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0007853308876452278</v>
+        <v>0.000911361843593258</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001236313037619974</v>
+        <v>0.0002535270477704788</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0003902780453176016</v>
+        <v>0.0004753195334999351</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0002569555387495156</v>
+        <v>0.0003644286712544924</v>
       </c>
       <c r="L22" t="n">
-        <v>0.001411338913552771</v>
+        <v>0.001992032555075505</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01287062555812513</v>
+        <v>0.01671352445074329</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000129063284366</v>
+        <v>1.000217640383982</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01341855473400236</v>
+        <v>0.01742505378837664</v>
       </c>
       <c r="P22" t="n">
-        <v>131.4112306105616</v>
+        <v>130.3661481598358</v>
       </c>
       <c r="Q22" t="n">
-        <v>200.887152628049</v>
+        <v>199.8420701773233</v>
       </c>
     </row>
     <row r="23">
@@ -1677,52 +1677,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998200987515867</v>
+        <v>0.999695222077734</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991560392103708</v>
+        <v>0.9990190935135508</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9997987877942119</v>
+        <v>0.9997188065639334</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9994946587078568</v>
+        <v>0.9996466990964328</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9996432818367829</v>
+        <v>0.99967554776088</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001679299186416799</v>
+        <v>0.0002844968122306778</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0007878003515217238</v>
+        <v>0.0009156331482818885</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001256323593681641</v>
+        <v>0.0002562975870823821</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0003919410443758782</v>
+        <v>0.000484165987721994</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0002587867018720212</v>
+        <v>0.0003702257423915905</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001422986468160401</v>
+        <v>0.002010630407997988</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01295877766773085</v>
+        <v>0.01686703329666121</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000130837271573</v>
+        <v>1.000221656670739</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01351045966141402</v>
+        <v>0.01758509782367241</v>
       </c>
       <c r="P23" t="n">
-        <v>131.3839276330701</v>
+        <v>130.3295770185475</v>
       </c>
       <c r="Q23" t="n">
-        <v>200.8598496505575</v>
+        <v>199.8054990360349</v>
       </c>
     </row>
     <row r="24">
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998176081187209</v>
+        <v>0.9996895916163319</v>
       </c>
       <c r="C24" t="n">
-        <v>0.999153339610497</v>
+        <v>0.999014422621113</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9997955252414069</v>
+        <v>0.9997156941812527</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9994924732622529</v>
+        <v>0.9996401382804547</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9996407096338175</v>
+        <v>0.9996703662978618</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001702548150957704</v>
+        <v>0.0002897526008008814</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0007903203095051132</v>
+        <v>0.0009199932213440696</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001276694236946134</v>
+        <v>0.0002591344106664464</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0003936360687995295</v>
+        <v>0.0004931569750537329</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0002606527462470715</v>
+        <v>0.000376138202720941</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001434760859182021</v>
+        <v>0.002029409560367104</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01304817286426611</v>
+        <v>0.01702212092545701</v>
       </c>
       <c r="N24" t="n">
-        <v>1.00013264864093</v>
+        <v>1.000225751551759</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01360366059653935</v>
+        <v>0.0177467878539017</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3564286616675</v>
+        <v>130.2929661995357</v>
       </c>
       <c r="Q24" t="n">
-        <v>200.8323506791549</v>
+        <v>199.7688882170231</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998150736547521</v>
+        <v>0.9996838523420919</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991505887153064</v>
+        <v>0.9990096567634037</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9997922014003646</v>
+        <v>0.9997125441221305</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9994902735838092</v>
+        <v>0.9996334689599106</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9996381025194787</v>
+        <v>0.9996650968012424</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001726206259605176</v>
+        <v>0.0002951099613788482</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0007928881494152413</v>
+        <v>0.0009244419403187493</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001297447550130075</v>
+        <v>0.0002620055749564173</v>
       </c>
       <c r="J25" t="n">
-        <v>0.000395342132166849</v>
+        <v>0.0005022966577890291</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0002625441176172359</v>
+        <v>0.0003821511163727232</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001446654481493491</v>
+        <v>0.00204836968710003</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01313851688587862</v>
+        <v>0.01717876483856881</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000134491887453</v>
+        <v>1.000229925569388</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01369785075018981</v>
+        <v>0.01791010042269227</v>
       </c>
       <c r="P25" t="n">
-        <v>131.3288285698906</v>
+        <v>130.2563250412837</v>
       </c>
       <c r="Q25" t="n">
-        <v>200.804750587378</v>
+        <v>199.7322470587712</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.999812481083869</v>
+        <v>0.9996779925565807</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991477887473158</v>
+        <v>0.9990047862617646</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9997888159691082</v>
+        <v>0.9997093147331971</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9994880089341771</v>
+        <v>0.9996266375259708</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9996354360288662</v>
+        <v>0.9996597062345863</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001750406770792225</v>
+        <v>0.0003005798139386841</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0007955017966301036</v>
+        <v>0.0009289883398084756</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001318585418707794</v>
+        <v>0.0002649490454831738</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0003970985869741776</v>
+        <v>0.000511658501836488</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0002644785644224784</v>
+        <v>0.0003883021805402593</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001458672644478283</v>
+        <v>0.002067542079194442</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01323029391507318</v>
+        <v>0.01733723778283854</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00013637739355</v>
+        <v>1.000234187231578</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01379353491752183</v>
+        <v>0.01807531988828378</v>
       </c>
       <c r="P26" t="n">
-        <v>131.3009843411963</v>
+        <v>130.2195944709323</v>
       </c>
       <c r="Q26" t="n">
-        <v>200.7769063586837</v>
+        <v>199.6955164884197</v>
       </c>
     </row>
   </sheetData>
